--- a/Library/SmokeSanityTestCases_SNCH.xlsx
+++ b/Library/SmokeSanityTestCases_SNCH.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26325" yWindow="0" windowWidth="13905" windowHeight="12300"/>
+    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>TC005</t>
   </si>
   <si>
-    <t>Pharmacy\TC003PharmacyOPDbilling.py</t>
-  </si>
-  <si>
     <t>TC006</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>MPH</t>
+  </si>
+  <si>
+    <t>Dispensary\TC001CreateDispensarySale.py</t>
   </si>
 </sst>
 </file>
@@ -543,19 +543,19 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H18"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="54.5703125" customWidth="1"/>
+    <col min="1" max="1" width="54.5546875" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="3" max="4" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -575,18 +575,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -600,15 +600,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -622,15 +622,15 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -644,15 +644,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -666,15 +666,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -683,20 +683,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -705,267 +705,267 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" s="3">
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" s="3">
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" s="3">
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Library/SmokeSanityTestCases_SNCH.xlsx
+++ b/Library/SmokeSanityTestCases_SNCH.xlsx
@@ -5,21 +5,22 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA\Automation\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27264" yWindow="0" windowWidth="13908" windowHeight="12300"/>
+    <workbookView xWindow="27270" yWindow="0" windowWidth="13905" windowHeight="12300"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
+    <sheet name="Modules" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -72,9 +73,6 @@
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
-    <t>Reports\TC001BillingDashboardSummary.py</t>
-  </si>
-  <si>
     <t>Reports\TC003SalesDayBookReport.py</t>
   </si>
   <si>
@@ -114,9 +112,6 @@
     <t>Manual Status</t>
   </si>
   <si>
-    <t>Pharmacy\Reports\TC010VerifyPharmacyDashboard.py</t>
-  </si>
-  <si>
     <t>TC013</t>
   </si>
   <si>
@@ -129,49 +124,82 @@
     <t>TC017</t>
   </si>
   <si>
-    <t>TC018</t>
-  </si>
-  <si>
-    <t>TC019</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Inventory\TC001CreateGoodReceipt.py</t>
-  </si>
-  <si>
-    <t>Billing\Opbilling\TC002OPDbillingLabXray.py</t>
-  </si>
-  <si>
-    <t>Deprecated: LPH</t>
-  </si>
-  <si>
-    <t>Hidden: LPH</t>
-  </si>
-  <si>
-    <t>OnHold: LPH</t>
-  </si>
-  <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
   </si>
   <si>
     <t>ADT\TC010AdmissionDischargeTransferToBePaid.py</t>
   </si>
   <si>
-    <t>Accounting\Post To Accounting</t>
-  </si>
-  <si>
     <t>Env</t>
   </si>
   <si>
     <t>SNCH</t>
   </si>
   <si>
-    <t>MPH</t>
-  </si>
-  <si>
     <t>Dispensary\TC001CreateDispensarySale.py</t>
+  </si>
+  <si>
+    <t>S.No.</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Delivery Status</t>
+  </si>
+  <si>
+    <t>Patient/Registration</t>
+  </si>
+  <si>
+    <t>Appointment</t>
+  </si>
+  <si>
+    <t>Billing-IP</t>
+  </si>
+  <si>
+    <t>Billing-OP</t>
+  </si>
+  <si>
+    <t>ADT</t>
+  </si>
+  <si>
+    <t>Labs(ER and OP)</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Nursing</t>
+  </si>
+  <si>
+    <t>Radiology Management</t>
+  </si>
+  <si>
+    <t>Medical Records</t>
+  </si>
+  <si>
+    <t>Reporting &amp; Dashboards</t>
+  </si>
+  <si>
+    <t>Patient\TC001PatientRegistrationPrintHealthCard.py</t>
+  </si>
+  <si>
+    <t>MedicalRecords\TC001createBirth&amp;DeathCertificate.py</t>
+  </si>
+  <si>
+    <t>MedicalRecords\Reports\TC001HospitalServiceSummaryReport.py</t>
+  </si>
+  <si>
+    <t>MedicalRecords\Reports\TC002InpatientMorbidityReport.py</t>
+  </si>
+  <si>
+    <t>TC002</t>
+  </si>
+  <si>
+    <t>Billing\IPbilling\TC002IPbillingCalculationCredit.py</t>
+  </si>
+  <si>
+    <t>Billing\OPbilling\TC002OPDbillingLabXray.py</t>
   </si>
 </sst>
 </file>
@@ -195,7 +223,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -205,6 +233,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -247,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -255,6 +289,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -540,22 +575,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="54.5546875" customWidth="1"/>
+    <col min="1" max="1" width="61.140625" customWidth="1"/>
     <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="22" customWidth="1"/>
-    <col min="7" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -575,18 +610,18 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -600,15 +635,15 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -617,20 +652,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -639,20 +674,20 @@
         <v>0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -661,20 +696,20 @@
         <v>0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -683,20 +718,20 @@
         <v>0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -705,157 +740,152 @@
         <v>0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="J7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3">
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3">
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -864,22 +894,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -888,22 +916,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -912,22 +938,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -936,22 +960,20 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>43</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>13</v>
@@ -960,16 +982,167 @@
         <v>0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="34.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Library/SmokeSanityTestCases_SNCH.xlsx
+++ b/Library/SmokeSanityTestCases_SNCH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
-    <t>Reports\TC003SalesDayBookReport.py</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -94,9 +91,6 @@
     <t>TC010</t>
   </si>
   <si>
-    <t>Reports\TC007DoctorSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -119,9 +113,6 @@
   </si>
   <si>
     <t>TC016</t>
-  </si>
-  <si>
-    <t>TC017</t>
   </si>
   <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
@@ -575,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -610,10 +601,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -635,7 +626,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,7 +634,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -652,20 +643,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -679,15 +670,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -701,15 +692,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -723,15 +714,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -745,7 +736,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,7 +744,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -762,20 +753,20 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -784,20 +775,20 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -806,12 +797,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,7 +810,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -828,12 +819,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,7 +832,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -850,20 +841,20 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -872,20 +863,20 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -894,20 +885,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -916,20 +907,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -938,20 +929,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -960,56 +951,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1034,13 +981,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1057,7 +1004,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1066,7 +1013,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1075,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1084,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1093,7 +1040,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1102,7 +1049,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1111,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1120,7 +1067,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1129,7 +1076,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1138,7 +1085,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C12" s="2"/>
     </row>

--- a/Library/SmokeSanityTestCases_SNCH.xlsx
+++ b/Library/SmokeSanityTestCases_SNCH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -73,6 +73,9 @@
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
+    <t>Reports\TC003SalesDayBookReport.py</t>
+  </si>
+  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -91,6 +94,9 @@
     <t>TC010</t>
   </si>
   <si>
+    <t>Reports\TC007DoctorSummaryReport.py</t>
+  </si>
+  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -113,6 +119,9 @@
   </si>
   <si>
     <t>TC016</t>
+  </si>
+  <si>
+    <t>TC017</t>
   </si>
   <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
@@ -566,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,7 +601,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -601,10 +610,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -612,7 +621,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -626,7 +635,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -634,7 +643,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -643,20 +652,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -670,15 +679,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -692,15 +701,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -714,15 +723,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -736,7 +745,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -744,7 +753,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -753,20 +762,20 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -775,20 +784,20 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -797,12 +806,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -810,21 +819,21 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -832,7 +841,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -841,20 +850,20 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>6</v>
@@ -863,20 +872,20 @@
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -885,20 +894,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -907,20 +916,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -929,20 +938,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -951,12 +960,56 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +1034,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,7 +1048,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1004,7 +1057,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1013,7 +1066,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1022,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1031,7 +1084,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1040,7 +1093,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1049,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1058,7 +1111,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1067,7 +1120,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1076,7 +1129,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1085,7 +1138,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2"/>
     </row>

--- a/Library/SmokeSanityTestCases_SNCH.xlsx
+++ b/Library/SmokeSanityTestCases_SNCH.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\QA\AutomationTest\Library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Automation\AutomationTest\Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="56">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -73,9 +73,6 @@
     <t>Appointment\TC002CreateAppointmentFollowup.py</t>
   </si>
   <si>
-    <t>Reports\TC003SalesDayBookReport.py</t>
-  </si>
-  <si>
     <t>TC007</t>
   </si>
   <si>
@@ -88,15 +85,9 @@
     <t>TC009</t>
   </si>
   <si>
-    <t>Reports\TC006PatientCreditSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC010</t>
   </si>
   <si>
-    <t>Reports\TC007DoctorSummaryReport.py</t>
-  </si>
-  <si>
     <t>TC011</t>
   </si>
   <si>
@@ -118,12 +109,6 @@
     <t>TC014</t>
   </si>
   <si>
-    <t>TC016</t>
-  </si>
-  <si>
-    <t>TC017</t>
-  </si>
-  <si>
     <t>Laboratory\TC005GenerateLabReport.py</t>
   </si>
   <si>
@@ -200,6 +185,9 @@
   </si>
   <si>
     <t>Billing\OPbilling\TC002OPDbillingLabXray.py</t>
+  </si>
+  <si>
+    <t>Reports\TC011UserCollectionReport.py</t>
   </si>
 </sst>
 </file>
@@ -575,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -610,10 +598,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -621,7 +609,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>6</v>
@@ -635,7 +623,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -643,7 +631,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>6</v>
@@ -652,20 +640,20 @@
         <v>0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>6</v>
@@ -679,15 +667,15 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>6</v>
@@ -701,15 +689,15 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
@@ -723,15 +711,15 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -745,7 +733,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -753,7 +741,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -762,20 +750,20 @@
         <v>0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>6</v>
@@ -784,20 +772,20 @@
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>6</v>
@@ -806,12 +794,12 @@
         <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,7 +807,7 @@
         <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -828,12 +816,12 @@
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,7 +829,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
@@ -850,42 +838,42 @@
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>13</v>
@@ -894,20 +882,20 @@
         <v>0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>13</v>
@@ -916,20 +904,20 @@
         <v>0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>13</v>
@@ -938,20 +926,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>13</v>
@@ -960,56 +948,12 @@
         <v>0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1034,13 +978,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1048,7 +992,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -1057,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2"/>
     </row>
@@ -1066,7 +1010,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2"/>
     </row>
@@ -1075,7 +1019,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="2"/>
     </row>
@@ -1084,7 +1028,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2"/>
     </row>
@@ -1093,7 +1037,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C7" s="2"/>
     </row>
@@ -1102,7 +1046,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2"/>
     </row>
@@ -1111,7 +1055,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C9" s="2"/>
     </row>
@@ -1120,7 +1064,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C10" s="2"/>
     </row>
@@ -1129,7 +1073,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C11" s="2"/>
     </row>
@@ -1138,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C12" s="2"/>
     </row>
